--- a/DOC/確認事項0521.xlsx
+++ b/DOC/確認事項0521.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g-matsu/Desktop/NSES_Gportal-UI/追加UI_作業服の集計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kato.taiki\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\3L8L35CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F879F8B-D7FD-A94D-8FAA-D585C4947114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECC9F72-53B1-412D-974A-63968AC0421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="5260" windowWidth="27900" windowHeight="16940" xr2:uid="{859C0CF4-51B0-0D41-9308-6BED49574484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{859C0CF4-51B0-0D41-9308-6BED49574484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>作業服集計システム　気になる点の確認など</t>
     <rPh sb="0" eb="3">
@@ -562,12 +563,231 @@
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>作業服関係者</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウフク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫の報告</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷</t>
+  </si>
+  <si>
+    <t>在庫の管理</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青矢印（作業服の流れ）</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サギョウフク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（事業所別集計、全体まとめ）</t>
+    <rPh sb="1" eb="4">
+      <t>ジギョウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（個人別入力、事業所別集計）</t>
+  </si>
+  <si>
+    <r>
+      <t>黒矢印（帳票の流れ）　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※システム化</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化範囲</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSES資材調達室</t>
+    <rPh sb="4" eb="6">
+      <t>シザイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チョウタツシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品指示</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月別→</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要数量の報告（毎年６月に翌年度分）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヨクネンド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要数量のまとめ（毎年６月）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎年７月</t>
+    <rPh sb="0" eb="2">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎年２月に納品</t>
+    <rPh sb="0" eb="2">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -597,6 +817,30 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -650,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +913,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +921,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,6 +955,1697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D13C4B-DE67-6E56-E795-6964D918B5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="2057400"/>
+          <a:ext cx="1790700" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本社</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給与厚生室・調達部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1B342D-03F2-0DDA-AA74-60BFC4C28754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067176" y="1514475"/>
+          <a:ext cx="1314449" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本社</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各部門</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C5C6DE-31F2-265E-7FA3-A1BC1A1A1728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991351" y="1771650"/>
+          <a:ext cx="1314449" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中部支社</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>事業所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710E8D52-1746-0CF1-3FD0-FC448B34D2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496301" y="1762125"/>
+          <a:ext cx="1314449" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>西日本支社</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>事業所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0062AB4-D578-FF14-B107-64D48AAAAB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020301" y="1762125"/>
+          <a:ext cx="1314449" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>焼却炉</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>事業所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D9C747-7DD8-130B-4F9B-B891EF646A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753726" y="2009775"/>
+          <a:ext cx="1238249" cy="704849"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エネルギー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>事業所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD118736-B65B-6C68-E820-AC1F7F8A72E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="3476625"/>
+          <a:ext cx="1704975" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メーカー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ミドリ安全</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テツゲン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22741F25-8602-D011-F27A-3B23FC620E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="3486150"/>
+          <a:ext cx="1704975" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>倉庫</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイビーカンパニー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87B5977-7D0B-FFE4-FD0B-C211ADD0AE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="2733675"/>
+          <a:ext cx="0" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A9115C-1AA4-8160-6C32-BF796DBE7B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="4076700"/>
+          <a:ext cx="1038225" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7823D09F-9B2C-178E-A9D3-5647CED19579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3390900" y="2800350"/>
+          <a:ext cx="1162050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CA184F-E5DD-60B2-4070-C26B727647B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4991100" y="2409825"/>
+          <a:ext cx="590550" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C33FA6-7C4A-4BC5-1B4A-1636F9CED489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6076950" y="2390775"/>
+          <a:ext cx="9525" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A3E62-A143-8501-D863-4ED56C319651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5867400" y="3000375"/>
+          <a:ext cx="714375" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9759DB1A-C8F1-A8C4-3B79-0A1477A728BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6038850" y="3067050"/>
+          <a:ext cx="1990725" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6616DD-46A1-1DAC-FA8D-836B896401F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7153275" y="2390775"/>
+          <a:ext cx="3028950" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CF878C-D94F-BDA7-0D42-C04B1D530683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3543300" y="1371600"/>
+          <a:ext cx="1104900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC70D24-E4DA-81B8-AB1D-6B2AC059072A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4676775" y="361950"/>
+          <a:ext cx="1104900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F443F90C-E391-D6C4-8EAD-522E41EC9D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4714875" y="628650"/>
+          <a:ext cx="1019175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EDF2A0-C072-1A4C-A2C6-C59788451B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534026" y="1762125"/>
+          <a:ext cx="1314449" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>東日本支社</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>事業所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DC6EDB-7226-B323-B6F0-5C03B3D1A81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7229475" y="2733675"/>
+          <a:ext cx="4543425" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99B0B9B-E193-0743-7FB9-4D8089EAE31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="2990850"/>
+          <a:ext cx="238125" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D21D923-92F8-E7AC-B2A7-0A257FF546E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3000375"/>
+          <a:ext cx="0" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12155E7A-8053-1217-CF3E-75EB5F81D2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6057900" y="3009900"/>
+          <a:ext cx="200025" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE12F616-7259-D8A4-565E-6A211C79E5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7343775" y="3028950"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E03107-E55F-F4C8-A5A2-0F10D2007A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9525000" y="2905125"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34144ABD-D4B2-CD8D-17DA-D1DB0606F83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11039475" y="3009900"/>
+          <a:ext cx="333375" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,33 +2947,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A92977B-B452-4346-A48C-45A80AB46823}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="88.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="88.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
       <c r="B2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1043,8 +2993,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="63">
-      <c r="A4" s="9">
+    <row r="4" spans="1:6" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1059,8 +3009,8 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="234" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1077,8 +3027,8 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="234" customHeight="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1095,8 +3045,8 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="84">
-      <c r="A7" s="9">
+    <row r="7" spans="1:6" ht="78" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1111,8 +3061,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="63">
-      <c r="A8" s="9">
+    <row r="8" spans="1:6" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1127,8 +3077,8 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="84">
-      <c r="A9" s="9">
+    <row r="9" spans="1:6" ht="78" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1143,8 +3093,8 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1153,4 +3103,146 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B72DE99-CE43-4FF1-992E-B2D138844AD5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="10">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>